--- a/salida.xlsx
+++ b/salida.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,90 +423,222 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.4</v>
+        <v>1.704214627773216e-07</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.4</v>
+        <v>2.295700140586204e-07</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3.166970932276749e-07</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3</v>
+        <v>1.477881398030546e-07</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3</v>
+        <v>2.017625013404618e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.790308123608052e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2</v>
+        <v>1.404795219549413e-07</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2</v>
+        <v>1.918751356277773e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.655218531714387e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2</v>
+        <v>1.36412554053914e-07</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2</v>
+        <v>1.860677777790696e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.574787356983663e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1</v>
+        <v>1.337057650544437e-07</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1</v>
+        <v>1.825984930044359e-07</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.526646979067981e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1.320681813292184e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.804438118714775e-07</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.50049786436284e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1.309022099581905e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.791683962277352e-07</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.476788199357551e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1.301489590723334e-07</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.779851840830547e-07</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.4634407080798e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1.294052857763367e-07</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.768629960272631e-07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.453066455812253e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2</v>
+        <v>1.288587645569233e-07</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2</v>
+        <v>1.761483427856111e-07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.441233643719332e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3</v>
+        <v>1.283253830588164e-07</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3</v>
+        <v>1.754810273280169e-07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.431555223775757e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.280401766301642e-07</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.750772869254758e-07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.424966000881079e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.277257126583201e-07</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.745252329437921e-07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.420752628770493e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.274903975364516e-07</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.742477327541745e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.414615187339081e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.272230021247929e-07</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.739464871131962e-07</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.410476115357739e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.269593230539038e-07</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.735118572892082e-07</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.405749451332848e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.268108836915697e-07</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.733968279933712e-07</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.403660374430359e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.266260132414183e-07</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.730918244965607e-07</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.399838333088834e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.265359355316557e-07</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.730110864033543e-07</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.396418896895329e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.277423131860126e-07</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.745354803112051e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.422528311910584e-07</v>
       </c>
     </row>
   </sheetData>
